--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\L&amp;T\Topup\GitDemo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LnT Infotech Training\Cloud\Git_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38947C3B-9BF1-441C-8346-66D083F1C524}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11460" windowHeight="6390"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>S.No</t>
   </si>
@@ -39,12 +40,15 @@
   </si>
   <si>
     <t>27th Oct</t>
+  </si>
+  <si>
+    <t>Arpan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -355,20 +359,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E2:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
         <v>0</v>
       </c>
@@ -382,9 +386,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E4">
         <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
       </c>
       <c r="G4" t="s">
         <v>3</v>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LnT Infotech Training\Cloud\Git_2\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38947C3B-9BF1-441C-8346-66D083F1C524}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9024"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>S.No</t>
   </si>
@@ -43,13 +37,19 @@
   </si>
   <si>
     <t>Arpan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Srishti </t>
+  </si>
+  <si>
+    <t>Present</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,7 +140,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,7 +175,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -352,27 +352,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E2:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="E2:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="6" max="6" width="19.5546875" customWidth="1"/>
     <col min="7" max="7" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="5:8">
       <c r="E2" t="s">
         <v>0</v>
       </c>
@@ -386,7 +386,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="5:8">
       <c r="E4">
         <v>1</v>
       </c>
@@ -395,6 +395,20 @@
       </c>
       <c r="G4" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="5:8">
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9024"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>S.No</t>
   </si>
@@ -43,6 +43,15 @@
   </si>
   <si>
     <t>Present</t>
+  </si>
+  <si>
+    <t>aayush</t>
+  </si>
+  <si>
+    <t>devops</t>
+  </si>
+  <si>
+    <t>present</t>
   </si>
 </sst>
 </file>
@@ -352,7 +361,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -360,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E2:H6"/>
+  <dimension ref="E2:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -411,6 +420,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="8" spans="5:8">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10654820\Documents\GitHub\TopupDevops\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A24265F-4ECC-4E1D-834D-4D8D2EE0A25A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9024"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>S.No</t>
   </si>
@@ -43,13 +49,16 @@
   </si>
   <si>
     <t>Present</t>
+  </si>
+  <si>
+    <t>Saransundar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,27 +361,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E2:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="E2:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="19.5546875" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:8">
+    <row r="2" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
         <v>0</v>
       </c>
@@ -386,7 +395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="5:8">
+    <row r="4" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E4">
         <v>1</v>
       </c>
@@ -397,7 +406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="5:8">
+    <row r="6" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E6">
         <v>2</v>
       </c>
@@ -408,6 +417,20 @@
         <v>3</v>
       </c>
       <c r="H6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
         <v>7</v>
       </c>
     </row>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GitHub\farmerProject\TopupDevops\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9024"/>
+    <workbookView xWindow="765" yWindow="765" windowWidth="17280" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>S.No</t>
   </si>
@@ -52,13 +57,16 @@
   </si>
   <si>
     <t>present</t>
+  </si>
+  <si>
+    <t>amlan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,27 +369,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E2:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E2:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="19.5546875" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:8">
+    <row r="2" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
         <v>0</v>
       </c>
@@ -395,7 +403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="5:8">
+    <row r="4" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E4">
         <v>1</v>
       </c>
@@ -406,7 +414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="5:8">
+    <row r="6" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E6">
         <v>2</v>
       </c>
@@ -420,7 +428,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="5:8">
+    <row r="8" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E8">
         <v>3</v>
       </c>
@@ -431,6 +439,20 @@
         <v>9</v>
       </c>
       <c r="H8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GitHub\farmerProject\TopupDevops\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LTI_TRAINING\DevOps Training\attendance-demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A14BF1-6C6C-462D-8B5D-152C9C352E28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="765" yWindow="765" windowWidth="17280" windowHeight="9030"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>S.No</t>
   </si>
@@ -60,12 +61,15 @@
   </si>
   <si>
     <t>amlan</t>
+  </si>
+  <si>
+    <t>tanuj</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -376,20 +380,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E2:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="E2:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
         <v>0</v>
       </c>
@@ -403,7 +407,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E4">
         <v>1</v>
       </c>
@@ -414,7 +418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E6">
         <v>2</v>
       </c>
@@ -428,7 +432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E8">
         <v>3</v>
       </c>
@@ -442,7 +446,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E10">
         <v>4</v>
       </c>
@@ -453,6 +457,20 @@
         <v>9</v>
       </c>
       <c r="H10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -1,31 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10654820\Documents\GitHub\TopupDevops\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A24265F-4ECC-4E1D-834D-4D8D2EE0A25A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20565" windowHeight="10410"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>S.No</t>
   </si>
@@ -36,13 +25,13 @@
     <t>Technology</t>
   </si>
   <si>
-    <t>Devops</t>
-  </si>
-  <si>
     <t>27th Oct</t>
   </si>
   <si>
     <t>Arpan</t>
+  </si>
+  <si>
+    <t>Devops</t>
   </si>
   <si>
     <t xml:space="preserve">Srishti </t>
@@ -53,29 +42,378 @@
   <si>
     <t>Saransundar</t>
   </si>
+  <si>
+    <t>Mahaveni</t>
+  </si>
+  <si>
+    <t>present</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -83,24 +421,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -358,30 +982,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E2:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="E2:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.5714285714286" customWidth="1"/>
+    <col min="7" max="7" width="24.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="5:8">
       <c r="E2" t="s">
         <v>0</v>
       </c>
@@ -392,21 +1011,21 @@
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:7">
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="6" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:8">
       <c r="E6">
         <v>2</v>
       </c>
@@ -414,13 +1033,13 @@
         <v>6</v>
       </c>
       <c r="G6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:8">
       <c r="E8">
         <v>3</v>
       </c>
@@ -428,13 +1047,28 @@
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H8" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="5:8">
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\TopupDevops\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6672EE-1476-48BC-AA31-25B269A7D9C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>S.No</t>
   </si>
@@ -56,12 +55,15 @@
   </si>
   <si>
     <t>Christopher</t>
+  </si>
+  <si>
+    <t>Junaid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -367,17 +369,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E2:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E2:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="6" max="6" width="19.5703125" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.59765625" customWidth="1"/>
+    <col min="7" max="7" width="24.265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:8">
@@ -461,6 +463,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="14" spans="5:8">
+      <c r="E14">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10654820\Documents\GitHub\TopupDevops\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\L&amp;T\Topup\GitDemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A24265F-4ECC-4E1D-834D-4D8D2EE0A25A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="86">
   <si>
     <t>S.No</t>
   </si>
@@ -52,13 +52,244 @@
   </si>
   <si>
     <t>Saransundar</t>
+  </si>
+  <si>
+    <t>Mahaveni R</t>
+  </si>
+  <si>
+    <t>Mahaveni.Ramakrishna@lntinfotech.com</t>
+  </si>
+  <si>
+    <t>Christopher A</t>
+  </si>
+  <si>
+    <t>Christopher.AntonyRaj@lntinfotech.com</t>
+  </si>
+  <si>
+    <t>Nithiyanand S</t>
+  </si>
+  <si>
+    <t>Nithiyanand.Sundararajan@lntinfotech.com</t>
+  </si>
+  <si>
+    <t>Saravana Bharathi</t>
+  </si>
+  <si>
+    <t>Saravanabharathi.G@lntinfotech.com</t>
+  </si>
+  <si>
+    <t>Gobinath</t>
+  </si>
+  <si>
+    <t>Gobinath.Gopalakrishnan@lntinfotech.com</t>
+  </si>
+  <si>
+    <t>Suryaprakash Vishwanath</t>
+  </si>
+  <si>
+    <t>Suryaprakash.Vishwanathan@lntinfotech.com</t>
+  </si>
+  <si>
+    <t>Pravin Balaji</t>
+  </si>
+  <si>
+    <t>Pravin.Balaji@lntinfotech.com</t>
+  </si>
+  <si>
+    <t>Pradeep Kumar MV</t>
+  </si>
+  <si>
+    <t>PradeepKumar.MV@lntinfotech.com</t>
+  </si>
+  <si>
+    <t>Shiva shankar</t>
+  </si>
+  <si>
+    <t>Shivasankar.Moorthy@lntinfotech.com</t>
+  </si>
+  <si>
+    <t>Paul Ranjith</t>
+  </si>
+  <si>
+    <t>Paul.Ranjith@lntinfotech.com</t>
+  </si>
+  <si>
+    <t>Ramprakash</t>
+  </si>
+  <si>
+    <t>ramprakash.murugan@lntinfotech.com</t>
+  </si>
+  <si>
+    <t>Nandha Kumar s</t>
+  </si>
+  <si>
+    <t>NandhaKumar.S@lntinfotech.com</t>
+  </si>
+  <si>
+    <t>Logesh Kumar</t>
+  </si>
+  <si>
+    <t>Logesh.Kumar@lntinfotech.com</t>
+  </si>
+  <si>
+    <t>Surya Prakash K</t>
+  </si>
+  <si>
+    <t>suryaprakash.kuppusamy@lntinfotech.com</t>
+  </si>
+  <si>
+    <t>Lalitha</t>
+  </si>
+  <si>
+    <t>Lalitha.Balasubramanian@lntinfotech.com</t>
+  </si>
+  <si>
+    <t>Victor</t>
+  </si>
+  <si>
+    <t>Victor.Francis@lntinfotech.com</t>
+  </si>
+  <si>
+    <t>Logaraj</t>
+  </si>
+  <si>
+    <t>Logaraj.G@lntinfotech.com</t>
+  </si>
+  <si>
+    <t>Sathiya</t>
+  </si>
+  <si>
+    <t>Sathiya.Chandrasekar@lntinfotech.com</t>
+  </si>
+  <si>
+    <t>Boopathi</t>
+  </si>
+  <si>
+    <t>Boopathi.Ananthakrishnan@lntinfotech.com</t>
+  </si>
+  <si>
+    <t>Paul Issac Wesley Y</t>
+  </si>
+  <si>
+    <t>Paul.Yessian@lntinfotech.com</t>
+  </si>
+  <si>
+    <t>Kishore Ramana Kumaar</t>
+  </si>
+  <si>
+    <t>DKishoreRamana.Kumaar@lntinfotech.com</t>
+  </si>
+  <si>
+    <t>BHABATOSH MOHANTY</t>
+  </si>
+  <si>
+    <t>BHABATOSH.MOHANTY@lntinfotech.com</t>
+  </si>
+  <si>
+    <t>Suraj R</t>
+  </si>
+  <si>
+    <t>Suraj.R@lntinfotech.com</t>
+  </si>
+  <si>
+    <t>Selva M</t>
+  </si>
+  <si>
+    <t>Selva.M@lntinfotech.com</t>
+  </si>
+  <si>
+    <t>Sharan</t>
+  </si>
+  <si>
+    <t>Sharan.p@lntinfotech.com</t>
+  </si>
+  <si>
+    <t>Ravi Kiran</t>
+  </si>
+  <si>
+    <t>Ravi1.Kiran@lntinfotech.com</t>
+  </si>
+  <si>
+    <t>Aayush Jhunjhunwala</t>
+  </si>
+  <si>
+    <t>Aayush.Jhunjhunwala@lntinfotech.com</t>
+  </si>
+  <si>
+    <t>Amlan Behera</t>
+  </si>
+  <si>
+    <t>Amlan.Abhijeet@lntinfotech.com</t>
+  </si>
+  <si>
+    <t>Arpan Banerjee</t>
+  </si>
+  <si>
+    <t>ARPAN.BANERJEE@lntinfotech.com</t>
+  </si>
+  <si>
+    <t>Tanuj Chakraborty</t>
+  </si>
+  <si>
+    <t>Tanuj.Chakraborty@lntinfotech.com</t>
+  </si>
+  <si>
+    <t>Srishti Nigam</t>
+  </si>
+  <si>
+    <t>Srishti.Nigam@lntinfotech.com</t>
+  </si>
+  <si>
+    <t>Mohammed Kasim</t>
+  </si>
+  <si>
+    <t>Mohammed.kasim@lntinfotech.com</t>
+  </si>
+  <si>
+    <t>Aktar Shaikh</t>
+  </si>
+  <si>
+    <t>akhtar.shaikh@lntinfotech.com</t>
+  </si>
+  <si>
+    <t>Saransundar N</t>
+  </si>
+  <si>
+    <t>Saransundar.N@lntinfotech.com</t>
+  </si>
+  <si>
+    <t>Gokul Hari Sathishguptha</t>
+  </si>
+  <si>
+    <t>gokul.hari@powerupcloud.com</t>
+  </si>
+  <si>
+    <t>Niraj Kumar Gupta</t>
+  </si>
+  <si>
+    <t>niraj.gupta@powerupcloud.com</t>
+  </si>
+  <si>
+    <t>Mohammed Junaid</t>
+  </si>
+  <si>
+    <t>md.junaid@powerupcloud.com</t>
+  </si>
+  <si>
+    <t>Names</t>
+  </si>
+  <si>
+    <t>Mail IDs:</t>
+  </si>
+  <si>
+    <t>p</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,16 +297,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -83,14 +340,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -368,11 +666,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E2:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,4 +735,492 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D3:G40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="55.28515625" customWidth="1"/>
+    <col min="6" max="6" width="49.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="4:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="4:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="4:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="4:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="4:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>7</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="4:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="4:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="4:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <v>10</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14">
+        <v>11</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="4:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <v>13</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>14</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>15</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19">
+        <v>16</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>17</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>18</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>19</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>20</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>21</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>22</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <v>23</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>24</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>25</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <v>26</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <v>27</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <v>28</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <v>29</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <v>30</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <v>31</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <v>32</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36">
+        <v>33</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D37">
+        <v>34</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D38">
+        <v>35</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="4:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D39">
+        <v>36</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="4:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D40">
+        <v>37</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" display="mailto:Mahaveni.Ramakrishna@lntinfotech.com"/>
+    <hyperlink ref="F5" r:id="rId2" display="mailto:Christopher.AntonyRaj@lntinfotech.com"/>
+    <hyperlink ref="F6" r:id="rId3" display="mailto:Nithiyanand.Sundararajan@lntinfotech.com"/>
+    <hyperlink ref="F7" r:id="rId4" display="mailto:Saravanabharathi.G@lntinfotech.com"/>
+    <hyperlink ref="F8" r:id="rId5" display="mailto:Gobinath.Gopalakrishnan@lntinfotech.com"/>
+    <hyperlink ref="F9" r:id="rId6" display="mailto:Suryaprakash.Vishwanathan@lntinfotech.com"/>
+    <hyperlink ref="F10" r:id="rId7" display="mailto:Pravin.Balaji@lntinfotech.com"/>
+    <hyperlink ref="F11" r:id="rId8" display="mailto:PradeepKumar.MV@lntinfotech.com"/>
+    <hyperlink ref="F12" r:id="rId9" display="mailto:Shivasankar.Moorthy@lntinfotech.com"/>
+    <hyperlink ref="F13" r:id="rId10" display="mailto:Paul.Ranjith@lntinfotech.com"/>
+    <hyperlink ref="F14" r:id="rId11" display="mailto:ramprakash.murugan@lntinfotech.com"/>
+    <hyperlink ref="F15" r:id="rId12" display="mailto:NandhaKumar.S@lntinfotech.com"/>
+    <hyperlink ref="F16" r:id="rId13" display="mailto:Logesh.Kumar@lntinfotech.com"/>
+    <hyperlink ref="F17" r:id="rId14" display="mailto:suryaprakash.kuppusamy@lntinfotech.com"/>
+    <hyperlink ref="F18" r:id="rId15" display="mailto:Lalitha.Balasubramanian@lntinfotech.com"/>
+    <hyperlink ref="F19" r:id="rId16" display="mailto:Victor.Francis@lntinfotech.com"/>
+    <hyperlink ref="F20" r:id="rId17" display="mailto:Logaraj.G@lntinfotech.com"/>
+    <hyperlink ref="F21" r:id="rId18" display="mailto:Sathiya.Chandrasekar@lntinfotech.com"/>
+    <hyperlink ref="F22" r:id="rId19" display="mailto:Boopathi.Ananthakrishnan@lntinfotech.com"/>
+    <hyperlink ref="F23" r:id="rId20" display="mailto:Paul.Yessian@lntinfotech.com"/>
+    <hyperlink ref="F24" r:id="rId21" tooltip="mailto:DKishoreRamana.Kumaar@lntinfotech.com" display="mailto:DKishoreRamana.Kumaar@lntinfotech.com"/>
+    <hyperlink ref="F25" r:id="rId22" display="mailto:BHABATOSH.MOHANTY@lntinfotech.com"/>
+    <hyperlink ref="F26" r:id="rId23" display="mailto:Suraj.R@lntinfotech.com"/>
+    <hyperlink ref="F27" r:id="rId24" display="mailto:Selva.M@lntinfotech.com"/>
+    <hyperlink ref="F28" r:id="rId25" display="mailto:Sharan.p@lntinfotech.com"/>
+    <hyperlink ref="F29" r:id="rId26" display="mailto:Ravi1.Kiran@lntinfotech.com"/>
+    <hyperlink ref="F30" r:id="rId27" display="mailto:Aayush.Jhunjhunwala@lntinfotech.com"/>
+    <hyperlink ref="F31" r:id="rId28" display="mailto:Amlan.Abhijeet@lntinfotech.com"/>
+    <hyperlink ref="F32" r:id="rId29" display="mailto:ARPAN.BANERJEE@lntinfotech.com"/>
+    <hyperlink ref="F33" r:id="rId30" display="mailto:Tanuj.Chakraborty@lntinfotech.com"/>
+    <hyperlink ref="F34" r:id="rId31" display="mailto:Srishti.Nigam@lntinfotech.com"/>
+    <hyperlink ref="F35" r:id="rId32" display="mailto:Mohammed.kasim@lntinfotech.com"/>
+    <hyperlink ref="F36" r:id="rId33" display="mailto:akhtar.shaikh@lntinfotech.com"/>
+    <hyperlink ref="F37" r:id="rId34" display="mailto:Saransundar.N@lntinfotech.com"/>
+    <hyperlink ref="F38" r:id="rId35" display="mailto:gokul.hari@powerupcloud.com"/>
+    <hyperlink ref="F39" r:id="rId36" display="mailto:niraj.gupta@powerupcloud.com"/>
+    <hyperlink ref="F40" r:id="rId37" display="mailto:md.junaid@powerupcloud.com"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\TopupDevops\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView windowWidth="21000" windowHeight="9800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>S.No</t>
   </si>
@@ -58,13 +53,22 @@
   </si>
   <si>
     <t>Junaid</t>
+  </si>
+  <si>
+    <t>Hari</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,16 +76,346 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -89,24 +423,310 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -364,22 +984,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E2:H14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="E2:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="7"/>
   <cols>
-    <col min="6" max="6" width="19.59765625" customWidth="1"/>
-    <col min="7" max="7" width="24.265625" customWidth="1"/>
+    <col min="6" max="6" width="19.6" customWidth="1"/>
+    <col min="7" max="7" width="24.2636363636364" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:8">
@@ -396,7 +1016,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="5:8">
+    <row r="4" spans="5:7">
       <c r="E4">
         <v>1</v>
       </c>
@@ -477,7 +1097,22 @@
         <v>7</v>
       </c>
     </row>
+    <row r="16" spans="5:8">
+      <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>